--- a/artfynd/A 73613-2021.xlsx
+++ b/artfynd/A 73613-2021.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY31"/>
+  <dimension ref="A1:AY41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4253,6 +4253,1232 @@
       </c>
       <c r="AY31" t="inlineStr"/>
     </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>112211016</v>
+      </c>
+      <c r="B32" t="n">
+        <v>90666</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>4364</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Hydnellum ferrugineum</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>S Simsbodarna, Dlr</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>515070</v>
+      </c>
+      <c r="R32" t="n">
+        <v>6704834</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1</v>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Borlänge</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>Stora Tuna</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="Z32" t="inlineStr">
+        <is>
+          <t>10:55</t>
+        </is>
+      </c>
+      <c r="AA32" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>10:55</t>
+        </is>
+      </c>
+      <c r="AD32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT32" t="inlineStr"/>
+      <c r="AW32" t="inlineStr">
+        <is>
+          <t>Lars-Erik Nilsson</t>
+        </is>
+      </c>
+      <c r="AX32" t="inlineStr">
+        <is>
+          <t>Lars-Erik Nilsson</t>
+        </is>
+      </c>
+      <c r="AY32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>112211348</v>
+      </c>
+      <c r="B33" t="n">
+        <v>89369</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>5447</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Vedticka</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Fuscoporia viticola</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Simsbodarna S, Dlr</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>515173</v>
+      </c>
+      <c r="R33" t="n">
+        <v>6704768</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1</v>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Borlänge</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>Stora Tuna</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="Z33" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="AA33" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="AD33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT33" t="inlineStr"/>
+      <c r="AW33" t="inlineStr">
+        <is>
+          <t>Lars-Erik Nilsson</t>
+        </is>
+      </c>
+      <c r="AX33" t="inlineStr">
+        <is>
+          <t>Lars-Erik Nilsson</t>
+        </is>
+      </c>
+      <c r="AY33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>112212788</v>
+      </c>
+      <c r="B34" t="n">
+        <v>90666</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>4364</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Hydnellum ferrugineum</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Simsbodarna SO, Dlr</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>515101</v>
+      </c>
+      <c r="R34" t="n">
+        <v>6704641</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1</v>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Borlänge</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>Stora Tuna</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>12:37</t>
+        </is>
+      </c>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>12:37</t>
+        </is>
+      </c>
+      <c r="AD34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT34" t="inlineStr"/>
+      <c r="AW34" t="inlineStr">
+        <is>
+          <t>Lars-Erik Nilsson</t>
+        </is>
+      </c>
+      <c r="AX34" t="inlineStr">
+        <is>
+          <t>Lars-Erik Nilsson</t>
+        </is>
+      </c>
+      <c r="AY34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>112212094</v>
+      </c>
+      <c r="B35" t="n">
+        <v>90666</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>4364</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Hydnellum ferrugineum</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Simsbodarna SO, Dlr</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>515450</v>
+      </c>
+      <c r="R35" t="n">
+        <v>6704585</v>
+      </c>
+      <c r="S35" t="n">
+        <v>2</v>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Borlänge</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>Stora Tuna</t>
+        </is>
+      </c>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>11:59</t>
+        </is>
+      </c>
+      <c r="AA35" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>11:59</t>
+        </is>
+      </c>
+      <c r="AC35" t="inlineStr">
+        <is>
+          <t>Ca. Färska fk.</t>
+        </is>
+      </c>
+      <c r="AD35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT35" t="inlineStr"/>
+      <c r="AW35" t="inlineStr">
+        <is>
+          <t>Lars-Erik Nilsson</t>
+        </is>
+      </c>
+      <c r="AX35" t="inlineStr">
+        <is>
+          <t>Lars-Erik Nilsson</t>
+        </is>
+      </c>
+      <c r="AY35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>112212237</v>
+      </c>
+      <c r="B36" t="n">
+        <v>90689</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>5966</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Motaggsvamp</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Sarcodon squamosus</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Simsbodarna SO, Dlr</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>515492</v>
+      </c>
+      <c r="R36" t="n">
+        <v>6704591</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1</v>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Borlänge</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>Stora Tuna</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="Z36" t="inlineStr">
+        <is>
+          <t>11:59</t>
+        </is>
+      </c>
+      <c r="AA36" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>11:59</t>
+        </is>
+      </c>
+      <c r="AC36" t="inlineStr">
+        <is>
+          <t>Stora fina ex.</t>
+        </is>
+      </c>
+      <c r="AD36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT36" t="inlineStr"/>
+      <c r="AW36" t="inlineStr">
+        <is>
+          <t>Lars-Erik Nilsson</t>
+        </is>
+      </c>
+      <c r="AX36" t="inlineStr">
+        <is>
+          <t>Lars-Erik Nilsson</t>
+        </is>
+      </c>
+      <c r="AY36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>112211929</v>
+      </c>
+      <c r="B37" t="n">
+        <v>90666</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>4364</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Hydnellum ferrugineum</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>SO Simsbodarna, Dlr</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>515370</v>
+      </c>
+      <c r="R37" t="n">
+        <v>6704610</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Borlänge</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>Stora Tuna</t>
+        </is>
+      </c>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>11:45</t>
+        </is>
+      </c>
+      <c r="AA37" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>11:45</t>
+        </is>
+      </c>
+      <c r="AC37" t="inlineStr">
+        <is>
+          <t>G:a fk.</t>
+        </is>
+      </c>
+      <c r="AD37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT37" t="inlineStr"/>
+      <c r="AW37" t="inlineStr">
+        <is>
+          <t>Lars-Erik Nilsson</t>
+        </is>
+      </c>
+      <c r="AX37" t="inlineStr">
+        <is>
+          <t>Lars-Erik Nilsson</t>
+        </is>
+      </c>
+      <c r="AY37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>112212369</v>
+      </c>
+      <c r="B38" t="n">
+        <v>90666</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>4364</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Hydnellum ferrugineum</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Simsbodarna SO, Dlr</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>515497</v>
+      </c>
+      <c r="R38" t="n">
+        <v>6704555</v>
+      </c>
+      <c r="S38" t="n">
+        <v>2</v>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Borlänge</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>Stora Tuna</t>
+        </is>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="Z38" t="inlineStr">
+        <is>
+          <t>12:12</t>
+        </is>
+      </c>
+      <c r="AA38" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>12:12</t>
+        </is>
+      </c>
+      <c r="AD38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT38" t="inlineStr"/>
+      <c r="AW38" t="inlineStr">
+        <is>
+          <t>Lars-Erik Nilsson</t>
+        </is>
+      </c>
+      <c r="AX38" t="inlineStr">
+        <is>
+          <t>Lars-Erik Nilsson</t>
+        </is>
+      </c>
+      <c r="AY38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>112212309</v>
+      </c>
+      <c r="B39" t="n">
+        <v>90666</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>4364</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Hydnellum ferrugineum</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Simsbodarna SO, Dlr</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>515492</v>
+      </c>
+      <c r="R39" t="n">
+        <v>6704591</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1</v>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Borlänge</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>Stora Tuna</t>
+        </is>
+      </c>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="Z39" t="inlineStr">
+        <is>
+          <t>12:08</t>
+        </is>
+      </c>
+      <c r="AA39" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>12:08</t>
+        </is>
+      </c>
+      <c r="AD39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT39" t="inlineStr"/>
+      <c r="AW39" t="inlineStr">
+        <is>
+          <t>Lars-Erik Nilsson</t>
+        </is>
+      </c>
+      <c r="AX39" t="inlineStr">
+        <is>
+          <t>Lars-Erik Nilsson</t>
+        </is>
+      </c>
+      <c r="AY39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>112211876</v>
+      </c>
+      <c r="B40" t="n">
+        <v>90689</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>5966</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Motaggsvamp</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Sarcodon squamosus</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>SO Simsbodarna, Dlr</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>515371</v>
+      </c>
+      <c r="R40" t="n">
+        <v>6704633</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1</v>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Borlänge</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>Stora Tuna</t>
+        </is>
+      </c>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="Z40" t="inlineStr">
+        <is>
+          <t>11:43</t>
+        </is>
+      </c>
+      <c r="AA40" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>11:43</t>
+        </is>
+      </c>
+      <c r="AD40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT40" t="inlineStr"/>
+      <c r="AW40" t="inlineStr">
+        <is>
+          <t>Lars-Erik Nilsson</t>
+        </is>
+      </c>
+      <c r="AX40" t="inlineStr">
+        <is>
+          <t>Lars-Erik Nilsson</t>
+        </is>
+      </c>
+      <c r="AY40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>112212286</v>
+      </c>
+      <c r="B41" t="n">
+        <v>90689</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>5966</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Motaggsvamp</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Sarcodon squamosus</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Simsbodarna SO, Dlr</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>515476</v>
+      </c>
+      <c r="R41" t="n">
+        <v>6704606</v>
+      </c>
+      <c r="S41" t="n">
+        <v>6</v>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>Borlänge</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>Stora Tuna</t>
+        </is>
+      </c>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="Z41" t="inlineStr">
+        <is>
+          <t>12:08</t>
+        </is>
+      </c>
+      <c r="AA41" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>12:08</t>
+        </is>
+      </c>
+      <c r="AD41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT41" t="inlineStr"/>
+      <c r="AW41" t="inlineStr">
+        <is>
+          <t>Lars-Erik Nilsson</t>
+        </is>
+      </c>
+      <c r="AX41" t="inlineStr">
+        <is>
+          <t>Lars-Erik Nilsson</t>
+        </is>
+      </c>
+      <c r="AY41" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 73613-2021.xlsx
+++ b/artfynd/A 73613-2021.xlsx
@@ -4255,7 +4255,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112211016</v>
+        <v>112212788</v>
       </c>
       <c r="B32" t="n">
         <v>90666</v>
@@ -4290,7 +4290,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -4301,14 +4301,14 @@
       <c r="K32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>S Simsbodarna, Dlr</t>
+          <t>Simsbodarna SO, Dlr</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>515070</v>
+        <v>515101</v>
       </c>
       <c r="R32" t="n">
-        <v>6704834</v>
+        <v>6704641</v>
       </c>
       <c r="S32" t="n">
         <v>1</v>
@@ -4340,7 +4340,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>10:55</t>
+          <t>12:37</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4350,7 +4350,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>10:55</t>
+          <t>12:37</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4377,10 +4377,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112211348</v>
+        <v>112212094</v>
       </c>
       <c r="B33" t="n">
-        <v>89369</v>
+        <v>90666</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4393,38 +4393,47 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>5447</v>
+        <v>4364</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr"/>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Simsbodarna S, Dlr</t>
+          <t>Simsbodarna SO, Dlr</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>515173</v>
+        <v>515450</v>
       </c>
       <c r="R33" t="n">
-        <v>6704768</v>
+        <v>6704585</v>
       </c>
       <c r="S33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -4453,7 +4462,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>11:15</t>
+          <t>11:59</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4463,7 +4472,12 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>11:15</t>
+          <t>11:59</t>
+        </is>
+      </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>Ca. Färska fk.</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4490,10 +4504,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112212788</v>
+        <v>112211876</v>
       </c>
       <c r="B34" t="n">
-        <v>90666</v>
+        <v>90689</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4502,30 +4516,30 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>4364</v>
+        <v>5966</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -4536,14 +4550,14 @@
       <c r="K34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Simsbodarna SO, Dlr</t>
+          <t>SO Simsbodarna, Dlr</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>515101</v>
+        <v>515371</v>
       </c>
       <c r="R34" t="n">
-        <v>6704641</v>
+        <v>6704633</v>
       </c>
       <c r="S34" t="n">
         <v>1</v>
@@ -4575,7 +4589,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>12:37</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4585,7 +4599,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>12:37</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4612,7 +4626,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112212094</v>
+        <v>112212309</v>
       </c>
       <c r="B35" t="n">
         <v>90666</v>
@@ -4647,7 +4661,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -4662,13 +4676,13 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>515450</v>
+        <v>515492</v>
       </c>
       <c r="R35" t="n">
-        <v>6704585</v>
+        <v>6704591</v>
       </c>
       <c r="S35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -4697,7 +4711,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4707,12 +4721,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>11:59</t>
-        </is>
-      </c>
-      <c r="AC35" t="inlineStr">
-        <is>
-          <t>Ca. Färska fk.</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4739,7 +4748,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>112212237</v>
+        <v>112212286</v>
       </c>
       <c r="B36" t="n">
         <v>90689</v>
@@ -4774,7 +4783,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -4789,13 +4798,13 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>515492</v>
+        <v>515476</v>
       </c>
       <c r="R36" t="n">
-        <v>6704591</v>
+        <v>6704606</v>
       </c>
       <c r="S36" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -4824,7 +4833,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4834,12 +4843,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>11:59</t>
-        </is>
-      </c>
-      <c r="AC36" t="inlineStr">
-        <is>
-          <t>Stora fina ex.</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4866,7 +4870,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>112211929</v>
+        <v>112211016</v>
       </c>
       <c r="B37" t="n">
         <v>90666</v>
@@ -4901,7 +4905,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -4912,17 +4916,17 @@
       <c r="K37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>SO Simsbodarna, Dlr</t>
+          <t>S Simsbodarna, Dlr</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>515370</v>
+        <v>515070</v>
       </c>
       <c r="R37" t="n">
-        <v>6704610</v>
+        <v>6704834</v>
       </c>
       <c r="S37" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -4951,7 +4955,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>10:55</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -4961,12 +4965,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>11:45</t>
-        </is>
-      </c>
-      <c r="AC37" t="inlineStr">
-        <is>
-          <t>G:a fk.</t>
+          <t>10:55</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4993,7 +4992,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>112212369</v>
+        <v>112211929</v>
       </c>
       <c r="B38" t="n">
         <v>90666</v>
@@ -5039,17 +5038,17 @@
       <c r="K38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Simsbodarna SO, Dlr</t>
+          <t>SO Simsbodarna, Dlr</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>515497</v>
+        <v>515370</v>
       </c>
       <c r="R38" t="n">
-        <v>6704555</v>
+        <v>6704610</v>
       </c>
       <c r="S38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -5078,7 +5077,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>12:12</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -5088,7 +5087,12 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>12:12</t>
+          <t>11:45</t>
+        </is>
+      </c>
+      <c r="AC38" t="inlineStr">
+        <is>
+          <t>G:a fk.</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -5115,7 +5119,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>112212309</v>
+        <v>112212369</v>
       </c>
       <c r="B39" t="n">
         <v>90666</v>
@@ -5150,7 +5154,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -5165,13 +5169,13 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>515492</v>
+        <v>515497</v>
       </c>
       <c r="R39" t="n">
-        <v>6704591</v>
+        <v>6704555</v>
       </c>
       <c r="S39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -5200,7 +5204,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>12:12</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -5210,7 +5214,7 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>12:12</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5237,7 +5241,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>112211876</v>
+        <v>112212237</v>
       </c>
       <c r="B40" t="n">
         <v>90689</v>
@@ -5272,7 +5276,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -5283,14 +5287,14 @@
       <c r="K40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
-          <t>SO Simsbodarna, Dlr</t>
+          <t>Simsbodarna SO, Dlr</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>515371</v>
+        <v>515492</v>
       </c>
       <c r="R40" t="n">
-        <v>6704633</v>
+        <v>6704591</v>
       </c>
       <c r="S40" t="n">
         <v>1</v>
@@ -5322,7 +5326,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>11:59</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -5332,7 +5336,12 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>11:59</t>
+        </is>
+      </c>
+      <c r="AC40" t="inlineStr">
+        <is>
+          <t>Stora fina ex.</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5359,10 +5368,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>112212286</v>
+        <v>112211348</v>
       </c>
       <c r="B41" t="n">
-        <v>90689</v>
+        <v>89369</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5371,51 +5380,42 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>5966</v>
+        <v>5447</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Simsbodarna SO, Dlr</t>
+          <t>Simsbodarna S, Dlr</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>515476</v>
+        <v>515173</v>
       </c>
       <c r="R41" t="n">
-        <v>6704606</v>
+        <v>6704768</v>
       </c>
       <c r="S41" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>11:15</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
@@ -5454,7 +5454,7 @@
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>11:15</t>
         </is>
       </c>
       <c r="AD41" t="b">

--- a/artfynd/A 73613-2021.xlsx
+++ b/artfynd/A 73613-2021.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY41"/>
+  <dimension ref="A1:AY43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3776,7 +3776,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>97183504</v>
+        <v>97183484</v>
       </c>
       <c r="B28" t="n">
         <v>90653</v>
@@ -3811,7 +3811,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>11</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -3832,7 +3832,7 @@
         <v>6704824.92528184</v>
       </c>
       <c r="S28" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3871,7 +3871,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -4255,10 +4255,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112212788</v>
+        <v>112211929</v>
       </c>
       <c r="B32" t="n">
-        <v>90666</v>
+        <v>90800</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4290,7 +4290,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -4301,17 +4301,17 @@
       <c r="K32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Simsbodarna SO, Dlr</t>
+          <t>SO Simsbodarna, Dlr</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>515101</v>
+        <v>515370</v>
       </c>
       <c r="R32" t="n">
-        <v>6704641</v>
+        <v>6704610</v>
       </c>
       <c r="S32" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>12:37</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4350,7 +4350,12 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>12:37</t>
+          <t>11:45</t>
+        </is>
+      </c>
+      <c r="AC32" t="inlineStr">
+        <is>
+          <t>G:a fk.</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4377,10 +4382,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112212094</v>
+        <v>112211348</v>
       </c>
       <c r="B33" t="n">
-        <v>90666</v>
+        <v>89503</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4393,47 +4398,38 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>4364</v>
+        <v>5447</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Simsbodarna SO, Dlr</t>
+          <t>Simsbodarna S, Dlr</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>515450</v>
+        <v>515173</v>
       </c>
       <c r="R33" t="n">
-        <v>6704585</v>
+        <v>6704768</v>
       </c>
       <c r="S33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -4462,7 +4458,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>11:15</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4472,12 +4468,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>11:59</t>
-        </is>
-      </c>
-      <c r="AC33" t="inlineStr">
-        <is>
-          <t>Ca. Färska fk.</t>
+          <t>11:15</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4504,10 +4495,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112211876</v>
+        <v>112212094</v>
       </c>
       <c r="B34" t="n">
-        <v>90689</v>
+        <v>90800</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4516,30 +4507,30 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>5966</v>
+        <v>4364</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -4550,17 +4541,17 @@
       <c r="K34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>SO Simsbodarna, Dlr</t>
+          <t>Simsbodarna SO, Dlr</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>515371</v>
+        <v>515450</v>
       </c>
       <c r="R34" t="n">
-        <v>6704633</v>
+        <v>6704585</v>
       </c>
       <c r="S34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -4589,7 +4580,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>11:59</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4599,7 +4590,12 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>11:59</t>
+        </is>
+      </c>
+      <c r="AC34" t="inlineStr">
+        <is>
+          <t>Ca. Färska fk.</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4626,10 +4622,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112212309</v>
+        <v>112211016</v>
       </c>
       <c r="B35" t="n">
-        <v>90666</v>
+        <v>90800</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4661,7 +4657,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -4672,14 +4668,14 @@
       <c r="K35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Simsbodarna SO, Dlr</t>
+          <t>S Simsbodarna, Dlr</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>515492</v>
+        <v>515070</v>
       </c>
       <c r="R35" t="n">
-        <v>6704591</v>
+        <v>6704834</v>
       </c>
       <c r="S35" t="n">
         <v>1</v>
@@ -4711,7 +4707,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>10:55</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4721,7 +4717,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>10:55</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4748,10 +4744,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>112212286</v>
+        <v>112212237</v>
       </c>
       <c r="B36" t="n">
-        <v>90689</v>
+        <v>90823</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4783,7 +4779,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -4798,13 +4794,13 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>515476</v>
+        <v>515492</v>
       </c>
       <c r="R36" t="n">
-        <v>6704606</v>
+        <v>6704591</v>
       </c>
       <c r="S36" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -4833,7 +4829,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>11:59</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4843,7 +4839,12 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>11:59</t>
+        </is>
+      </c>
+      <c r="AC36" t="inlineStr">
+        <is>
+          <t>Stora fina ex.</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4870,10 +4871,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>112211016</v>
+        <v>112212788</v>
       </c>
       <c r="B37" t="n">
-        <v>90666</v>
+        <v>90800</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4905,7 +4906,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -4916,14 +4917,14 @@
       <c r="K37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>S Simsbodarna, Dlr</t>
+          <t>Simsbodarna SO, Dlr</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>515070</v>
+        <v>515101</v>
       </c>
       <c r="R37" t="n">
-        <v>6704834</v>
+        <v>6704641</v>
       </c>
       <c r="S37" t="n">
         <v>1</v>
@@ -4955,7 +4956,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>10:55</t>
+          <t>12:37</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -4965,7 +4966,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>10:55</t>
+          <t>12:37</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4992,10 +4993,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>112211929</v>
+        <v>112212286</v>
       </c>
       <c r="B38" t="n">
-        <v>90666</v>
+        <v>90823</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -5004,30 +5005,30 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>4364</v>
+        <v>5966</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -5038,17 +5039,17 @@
       <c r="K38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>SO Simsbodarna, Dlr</t>
+          <t>Simsbodarna SO, Dlr</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>515370</v>
+        <v>515476</v>
       </c>
       <c r="R38" t="n">
-        <v>6704610</v>
+        <v>6704606</v>
       </c>
       <c r="S38" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -5077,7 +5078,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -5087,12 +5088,7 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>11:45</t>
-        </is>
-      </c>
-      <c r="AC38" t="inlineStr">
-        <is>
-          <t>G:a fk.</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -5119,10 +5115,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>112212369</v>
+        <v>112211876</v>
       </c>
       <c r="B39" t="n">
-        <v>90666</v>
+        <v>90823</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5131,30 +5127,30 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>4364</v>
+        <v>5966</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -5165,17 +5161,17 @@
       <c r="K39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Simsbodarna SO, Dlr</t>
+          <t>SO Simsbodarna, Dlr</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>515497</v>
+        <v>515371</v>
       </c>
       <c r="R39" t="n">
-        <v>6704555</v>
+        <v>6704633</v>
       </c>
       <c r="S39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -5204,7 +5200,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>12:12</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -5214,7 +5210,7 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>12:12</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5241,10 +5237,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>112212237</v>
+        <v>112212309</v>
       </c>
       <c r="B40" t="n">
-        <v>90689</v>
+        <v>90800</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5253,25 +5249,25 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>5966</v>
+        <v>4364</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -5326,7 +5322,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -5336,12 +5332,7 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>11:59</t>
-        </is>
-      </c>
-      <c r="AC40" t="inlineStr">
-        <is>
-          <t>Stora fina ex.</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5368,10 +5359,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>112211348</v>
+        <v>112212369</v>
       </c>
       <c r="B41" t="n">
-        <v>89369</v>
+        <v>90800</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5384,38 +5375,47 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>5447</v>
+        <v>4364</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr"/>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Simsbodarna S, Dlr</t>
+          <t>Simsbodarna SO, Dlr</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>515173</v>
+        <v>515497</v>
       </c>
       <c r="R41" t="n">
-        <v>6704768</v>
+        <v>6704555</v>
       </c>
       <c r="S41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>11:15</t>
+          <t>12:12</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
@@ -5454,7 +5454,7 @@
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>11:15</t>
+          <t>12:12</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5478,6 +5478,251 @@
         </is>
       </c>
       <c r="AY41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>112274101</v>
+      </c>
+      <c r="B42" t="n">
+        <v>90823</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>5966</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Motaggsvamp</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Sarcodon squamosus</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Simsbodarna SÖ, Dlr</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>515488</v>
+      </c>
+      <c r="R42" t="n">
+        <v>6704599</v>
+      </c>
+      <c r="S42" t="n">
+        <v>25</v>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Borlänge</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>Stora Tuna</t>
+        </is>
+      </c>
+      <c r="Y42" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="Z42" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="AA42" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>10:40</t>
+        </is>
+      </c>
+      <c r="AC42" t="inlineStr">
+        <is>
+          <t>Återfynd</t>
+        </is>
+      </c>
+      <c r="AD42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF42" t="inlineStr"/>
+      <c r="AG42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT42" t="inlineStr"/>
+      <c r="AW42" t="inlineStr">
+        <is>
+          <t>Håkan Sandin</t>
+        </is>
+      </c>
+      <c r="AX42" t="inlineStr">
+        <is>
+          <t>Håkan Sandin</t>
+        </is>
+      </c>
+      <c r="AY42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>112274081</v>
+      </c>
+      <c r="B43" t="n">
+        <v>90800</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>4364</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Hydnellum ferrugineum</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Simsbodarna Ö, Dlr</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>515374</v>
+      </c>
+      <c r="R43" t="n">
+        <v>6704855</v>
+      </c>
+      <c r="S43" t="n">
+        <v>25</v>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>Borlänge</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>Stora Tuna</t>
+        </is>
+      </c>
+      <c r="Y43" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="Z43" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="AA43" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>10:40</t>
+        </is>
+      </c>
+      <c r="AD43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF43" t="inlineStr"/>
+      <c r="AG43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT43" t="inlineStr"/>
+      <c r="AW43" t="inlineStr">
+        <is>
+          <t>Håkan Sandin</t>
+        </is>
+      </c>
+      <c r="AX43" t="inlineStr">
+        <is>
+          <t>Håkan Sandin</t>
+        </is>
+      </c>
+      <c r="AY43" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 73613-2021.xlsx
+++ b/artfynd/A 73613-2021.xlsx
@@ -4255,10 +4255,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112211929</v>
+        <v>112211348</v>
       </c>
       <c r="B32" t="n">
-        <v>90800</v>
+        <v>89517</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4271,47 +4271,38 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>4364</v>
+        <v>5447</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>SO Simsbodarna, Dlr</t>
+          <t>Simsbodarna S, Dlr</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>515370</v>
+        <v>515173</v>
       </c>
       <c r="R32" t="n">
-        <v>6704610</v>
+        <v>6704768</v>
       </c>
       <c r="S32" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -4340,7 +4331,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>11:15</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4350,12 +4341,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>11:45</t>
-        </is>
-      </c>
-      <c r="AC32" t="inlineStr">
-        <is>
-          <t>G:a fk.</t>
+          <t>11:15</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4382,10 +4368,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112211348</v>
+        <v>112212286</v>
       </c>
       <c r="B33" t="n">
-        <v>89503</v>
+        <v>90837</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4394,42 +4380,51 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>5447</v>
+        <v>5966</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr"/>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Simsbodarna S, Dlr</t>
+          <t>Simsbodarna SO, Dlr</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>515173</v>
+        <v>515476</v>
       </c>
       <c r="R33" t="n">
-        <v>6704768</v>
+        <v>6704606</v>
       </c>
       <c r="S33" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -4458,7 +4453,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>11:15</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4468,7 +4463,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>11:15</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4495,10 +4490,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112212094</v>
+        <v>112211929</v>
       </c>
       <c r="B34" t="n">
-        <v>90800</v>
+        <v>90814</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4541,17 +4536,17 @@
       <c r="K34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Simsbodarna SO, Dlr</t>
+          <t>SO Simsbodarna, Dlr</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>515450</v>
+        <v>515370</v>
       </c>
       <c r="R34" t="n">
-        <v>6704585</v>
+        <v>6704610</v>
       </c>
       <c r="S34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -4580,7 +4575,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4590,12 +4585,12 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>Ca. Färska fk.</t>
+          <t>G:a fk.</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4622,10 +4617,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112211016</v>
+        <v>112212369</v>
       </c>
       <c r="B35" t="n">
-        <v>90800</v>
+        <v>90814</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4657,7 +4652,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -4668,17 +4663,17 @@
       <c r="K35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>S Simsbodarna, Dlr</t>
+          <t>Simsbodarna SO, Dlr</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>515070</v>
+        <v>515497</v>
       </c>
       <c r="R35" t="n">
-        <v>6704834</v>
+        <v>6704555</v>
       </c>
       <c r="S35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -4707,7 +4702,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>10:55</t>
+          <t>12:12</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4717,7 +4712,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>10:55</t>
+          <t>12:12</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4744,10 +4739,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>112212237</v>
+        <v>112211016</v>
       </c>
       <c r="B36" t="n">
-        <v>90823</v>
+        <v>90814</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4756,30 +4751,30 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>5966</v>
+        <v>4364</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -4790,14 +4785,14 @@
       <c r="K36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Simsbodarna SO, Dlr</t>
+          <t>S Simsbodarna, Dlr</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>515492</v>
+        <v>515070</v>
       </c>
       <c r="R36" t="n">
-        <v>6704591</v>
+        <v>6704834</v>
       </c>
       <c r="S36" t="n">
         <v>1</v>
@@ -4829,7 +4824,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>10:55</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4839,12 +4834,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>11:59</t>
-        </is>
-      </c>
-      <c r="AC36" t="inlineStr">
-        <is>
-          <t>Stora fina ex.</t>
+          <t>10:55</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4871,10 +4861,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>112212788</v>
+        <v>112212309</v>
       </c>
       <c r="B37" t="n">
-        <v>90800</v>
+        <v>90814</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4921,10 +4911,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>515101</v>
+        <v>515492</v>
       </c>
       <c r="R37" t="n">
-        <v>6704641</v>
+        <v>6704591</v>
       </c>
       <c r="S37" t="n">
         <v>1</v>
@@ -4956,7 +4946,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>12:37</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -4966,7 +4956,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>12:37</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4993,10 +4983,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>112212286</v>
+        <v>112211876</v>
       </c>
       <c r="B38" t="n">
-        <v>90823</v>
+        <v>90837</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -5028,7 +5018,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -5039,17 +5029,17 @@
       <c r="K38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Simsbodarna SO, Dlr</t>
+          <t>SO Simsbodarna, Dlr</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>515476</v>
+        <v>515371</v>
       </c>
       <c r="R38" t="n">
-        <v>6704606</v>
+        <v>6704633</v>
       </c>
       <c r="S38" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -5078,7 +5068,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -5088,7 +5078,7 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -5115,10 +5105,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>112211876</v>
+        <v>112212788</v>
       </c>
       <c r="B39" t="n">
-        <v>90823</v>
+        <v>90814</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5127,30 +5117,30 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>5966</v>
+        <v>4364</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -5161,14 +5151,14 @@
       <c r="K39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>SO Simsbodarna, Dlr</t>
+          <t>Simsbodarna SO, Dlr</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>515371</v>
+        <v>515101</v>
       </c>
       <c r="R39" t="n">
-        <v>6704633</v>
+        <v>6704641</v>
       </c>
       <c r="S39" t="n">
         <v>1</v>
@@ -5200,7 +5190,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>12:37</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -5210,7 +5200,7 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>12:37</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5237,10 +5227,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>112212309</v>
+        <v>112212094</v>
       </c>
       <c r="B40" t="n">
-        <v>90800</v>
+        <v>90814</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5272,7 +5262,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -5287,13 +5277,13 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>515492</v>
+        <v>515450</v>
       </c>
       <c r="R40" t="n">
-        <v>6704591</v>
+        <v>6704585</v>
       </c>
       <c r="S40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
@@ -5322,7 +5312,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>11:59</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -5332,7 +5322,12 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>11:59</t>
+        </is>
+      </c>
+      <c r="AC40" t="inlineStr">
+        <is>
+          <t>Ca. Färska fk.</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5359,10 +5354,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>112212369</v>
+        <v>112212237</v>
       </c>
       <c r="B41" t="n">
-        <v>90800</v>
+        <v>90837</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5371,30 +5366,30 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>4364</v>
+        <v>5966</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -5409,13 +5404,13 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>515497</v>
+        <v>515492</v>
       </c>
       <c r="R41" t="n">
-        <v>6704555</v>
+        <v>6704591</v>
       </c>
       <c r="S41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
@@ -5444,7 +5439,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>12:12</t>
+          <t>11:59</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
@@ -5454,7 +5449,12 @@
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>12:12</t>
+          <t>11:59</t>
+        </is>
+      </c>
+      <c r="AC41" t="inlineStr">
+        <is>
+          <t>Stora fina ex.</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5481,10 +5481,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>112274101</v>
+        <v>112274081</v>
       </c>
       <c r="B42" t="n">
-        <v>90823</v>
+        <v>90814</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5493,41 +5493,49 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>5966</v>
+        <v>4364</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="N42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Simsbodarna SÖ, Dlr</t>
+          <t>Simsbodarna Ö, Dlr</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>515488</v>
+        <v>515374</v>
       </c>
       <c r="R42" t="n">
-        <v>6704599</v>
+        <v>6704855</v>
       </c>
       <c r="S42" t="n">
         <v>25</v>
@@ -5570,11 +5578,6 @@
       <c r="AB42" t="inlineStr">
         <is>
           <t>10:40</t>
-        </is>
-      </c>
-      <c r="AC42" t="inlineStr">
-        <is>
-          <t>Återfynd</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5602,10 +5605,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>112274081</v>
+        <v>112274101</v>
       </c>
       <c r="B43" t="n">
-        <v>90800</v>
+        <v>90837</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5614,49 +5617,41 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>4364</v>
+        <v>5966</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="N43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Simsbodarna Ö, Dlr</t>
+          <t>Simsbodarna SÖ, Dlr</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>515374</v>
+        <v>515488</v>
       </c>
       <c r="R43" t="n">
-        <v>6704855</v>
+        <v>6704599</v>
       </c>
       <c r="S43" t="n">
         <v>25</v>
@@ -5699,6 +5694,11 @@
       <c r="AB43" t="inlineStr">
         <is>
           <t>10:40</t>
+        </is>
+      </c>
+      <c r="AC43" t="inlineStr">
+        <is>
+          <t>Återfynd</t>
         </is>
       </c>
       <c r="AD43" t="b">

--- a/artfynd/A 73613-2021.xlsx
+++ b/artfynd/A 73613-2021.xlsx
@@ -4255,10 +4255,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112211348</v>
+        <v>112212309</v>
       </c>
       <c r="B32" t="n">
-        <v>89517</v>
+        <v>90814</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4271,35 +4271,44 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>5447</v>
+        <v>4364</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr"/>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Simsbodarna S, Dlr</t>
+          <t>Simsbodarna SO, Dlr</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>515173</v>
+        <v>515492</v>
       </c>
       <c r="R32" t="n">
-        <v>6704768</v>
+        <v>6704591</v>
       </c>
       <c r="S32" t="n">
         <v>1</v>
@@ -4331,7 +4340,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>11:15</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4341,7 +4350,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>11:15</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4368,10 +4377,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112212286</v>
+        <v>112212369</v>
       </c>
       <c r="B33" t="n">
-        <v>90837</v>
+        <v>90814</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4380,30 +4389,30 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>5966</v>
+        <v>4364</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -4418,13 +4427,13 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>515476</v>
+        <v>515497</v>
       </c>
       <c r="R33" t="n">
-        <v>6704606</v>
+        <v>6704555</v>
       </c>
       <c r="S33" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -4453,7 +4462,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>12:12</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4463,7 +4472,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>12:12</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4490,7 +4499,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112211929</v>
+        <v>112212094</v>
       </c>
       <c r="B34" t="n">
         <v>90814</v>
@@ -4536,17 +4545,17 @@
       <c r="K34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>SO Simsbodarna, Dlr</t>
+          <t>Simsbodarna SO, Dlr</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>515370</v>
+        <v>515450</v>
       </c>
       <c r="R34" t="n">
-        <v>6704610</v>
+        <v>6704585</v>
       </c>
       <c r="S34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -4575,7 +4584,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>11:59</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4585,12 +4594,12 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>11:59</t>
         </is>
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>G:a fk.</t>
+          <t>Ca. Färska fk.</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4617,10 +4626,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112212369</v>
+        <v>112212286</v>
       </c>
       <c r="B35" t="n">
-        <v>90814</v>
+        <v>90837</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4629,30 +4638,30 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>4364</v>
+        <v>5966</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -4667,13 +4676,13 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>515497</v>
+        <v>515476</v>
       </c>
       <c r="R35" t="n">
-        <v>6704555</v>
+        <v>6704606</v>
       </c>
       <c r="S35" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -4702,7 +4711,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>12:12</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4712,7 +4721,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>12:12</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4739,10 +4748,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>112211016</v>
+        <v>112211876</v>
       </c>
       <c r="B36" t="n">
-        <v>90814</v>
+        <v>90837</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4751,25 +4760,25 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>4364</v>
+        <v>5966</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -4785,14 +4794,14 @@
       <c r="K36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>S Simsbodarna, Dlr</t>
+          <t>SO Simsbodarna, Dlr</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>515070</v>
+        <v>515371</v>
       </c>
       <c r="R36" t="n">
-        <v>6704834</v>
+        <v>6704633</v>
       </c>
       <c r="S36" t="n">
         <v>1</v>
@@ -4824,7 +4833,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>10:55</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4834,7 +4843,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>10:55</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4861,7 +4870,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>112212309</v>
+        <v>112212788</v>
       </c>
       <c r="B37" t="n">
         <v>90814</v>
@@ -4911,10 +4920,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>515492</v>
+        <v>515101</v>
       </c>
       <c r="R37" t="n">
-        <v>6704591</v>
+        <v>6704641</v>
       </c>
       <c r="S37" t="n">
         <v>1</v>
@@ -4946,7 +4955,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>12:37</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -4956,7 +4965,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>12:37</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4983,7 +4992,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>112211876</v>
+        <v>112212237</v>
       </c>
       <c r="B38" t="n">
         <v>90837</v>
@@ -5018,7 +5027,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -5029,14 +5038,14 @@
       <c r="K38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>SO Simsbodarna, Dlr</t>
+          <t>Simsbodarna SO, Dlr</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>515371</v>
+        <v>515492</v>
       </c>
       <c r="R38" t="n">
-        <v>6704633</v>
+        <v>6704591</v>
       </c>
       <c r="S38" t="n">
         <v>1</v>
@@ -5068,7 +5077,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>11:59</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -5078,7 +5087,12 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>11:59</t>
+        </is>
+      </c>
+      <c r="AC38" t="inlineStr">
+        <is>
+          <t>Stora fina ex.</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -5105,7 +5119,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>112212788</v>
+        <v>112211016</v>
       </c>
       <c r="B39" t="n">
         <v>90814</v>
@@ -5140,7 +5154,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -5151,14 +5165,14 @@
       <c r="K39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Simsbodarna SO, Dlr</t>
+          <t>S Simsbodarna, Dlr</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>515101</v>
+        <v>515070</v>
       </c>
       <c r="R39" t="n">
-        <v>6704641</v>
+        <v>6704834</v>
       </c>
       <c r="S39" t="n">
         <v>1</v>
@@ -5190,7 +5204,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>12:37</t>
+          <t>10:55</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -5200,7 +5214,7 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>12:37</t>
+          <t>10:55</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5227,10 +5241,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>112212094</v>
+        <v>112211348</v>
       </c>
       <c r="B40" t="n">
-        <v>90814</v>
+        <v>89517</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5243,47 +5257,38 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>4364</v>
+        <v>5447</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Simsbodarna SO, Dlr</t>
+          <t>Simsbodarna S, Dlr</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>515450</v>
+        <v>515173</v>
       </c>
       <c r="R40" t="n">
-        <v>6704585</v>
+        <v>6704768</v>
       </c>
       <c r="S40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
@@ -5312,7 +5317,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>11:15</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -5322,12 +5327,7 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>11:59</t>
-        </is>
-      </c>
-      <c r="AC40" t="inlineStr">
-        <is>
-          <t>Ca. Färska fk.</t>
+          <t>11:15</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5354,10 +5354,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>112212237</v>
+        <v>112211929</v>
       </c>
       <c r="B41" t="n">
-        <v>90837</v>
+        <v>90814</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5366,30 +5366,30 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>5966</v>
+        <v>4364</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -5400,17 +5400,17 @@
       <c r="K41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Simsbodarna SO, Dlr</t>
+          <t>SO Simsbodarna, Dlr</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>515492</v>
+        <v>515370</v>
       </c>
       <c r="R41" t="n">
-        <v>6704591</v>
+        <v>6704610</v>
       </c>
       <c r="S41" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
@@ -5439,7 +5439,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
@@ -5449,12 +5449,12 @@
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="AC41" t="inlineStr">
         <is>
-          <t>Stora fina ex.</t>
+          <t>G:a fk.</t>
         </is>
       </c>
       <c r="AD41" t="b">
